--- a/src/main/User_Excel_Example.xlsx
+++ b/src/main/User_Excel_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCL-NT-0162\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\HansungVote\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23C2FE-30FE-486D-BEC9-20E64E09AFDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A9D5C9-008D-485B-B57A-E70FA61B4C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17460" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
+    <workbookView xWindow="5775" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>stu_id</t>
   </si>
@@ -42,61 +42,36 @@
     <t>department</t>
   </si>
   <si>
-    <t>1771293</t>
-  </si>
-  <si>
-    <t>황윤규</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>01094465773</t>
-  </si>
-  <si>
-    <t>V023</t>
-  </si>
-  <si>
-    <t>1771357</t>
-  </si>
-  <si>
-    <t>박성재</t>
-  </si>
-  <si>
-    <t>2345</t>
-  </si>
-  <si>
-    <t>01049225662</t>
-  </si>
-  <si>
-    <t>V022</t>
-  </si>
-  <si>
-    <t>1771416</t>
-  </si>
-  <si>
-    <t>이찬호</t>
-  </si>
-  <si>
-    <t>3456</t>
-  </si>
-  <si>
-    <t>01095271868</t>
-  </si>
-  <si>
-    <t>1971441</t>
-  </si>
-  <si>
-    <t>임수빈</t>
-  </si>
-  <si>
-    <t>4567</t>
-  </si>
-  <si>
-    <t>01091584899</t>
-  </si>
-  <si>
-    <t>V021</t>
+    <t>1771154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양종욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2271000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1111 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E266A699-6733-4EF7-9FEA-349FA3B083B8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,44 +518,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/User_Excel_Example.xlsx
+++ b/src/main/User_Excel_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\HansungVote\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A9D5C9-008D-485B-B57A-E70FA61B4C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DD6DEF-A38E-4847-9B13-81D236BE1F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
+    <workbookView xWindow="3585" yWindow="1560" windowWidth="21600" windowHeight="13275" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>stu_id</t>
   </si>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t xml:space="preserve">1111 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E266A699-6733-4EF7-9FEA-349FA3B083B8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -473,7 +489,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,8 +505,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -506,8 +528,14 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -522,6 +550,12 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/User_Excel_Example.xlsx
+++ b/src/main/User_Excel_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\HansungVote\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DD6DEF-A38E-4847-9B13-81D236BE1F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C385D-9A18-4D66-9FB8-FE858CB48F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="1560" windowWidth="21600" windowHeight="13275" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
   </bookViews>
@@ -74,19 +74,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,8 +485,9 @@
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -506,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -529,10 +530,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -552,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/User_Excel_Example.xlsx
+++ b/src/main/User_Excel_Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\HansungVote\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C385D-9A18-4D66-9FB8-FE858CB48F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F519C-D72D-4EEF-B504-A64F231C2AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="1560" windowWidth="21600" windowHeight="13275" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>stu_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -50,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1111 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,11 +65,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>delegate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>club</t>
+  </si>
+  <si>
+    <t>agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,88 +469,88 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/User_Excel_Example.xlsx
+++ b/src/main/User_Excel_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\HansungVote\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwang-yoongyu/Documents/GitHub/HansungVote/src/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084F519C-D72D-4EEF-B504-A64F231C2AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00798F28-938E-4846-873B-C02A4FD1F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1560" windowWidth="21600" windowHeight="13275" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
+    <workbookView xWindow="3580" yWindow="1560" windowWidth="21600" windowHeight="13280" xr2:uid="{B69A26B1-71C7-4B06-9A75-BB2EE1CE4D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>club</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -88,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,48 +462,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E266A699-6733-4EF7-9FEA-349FA3B083B8}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,13 +516,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,9 +536,6 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
